--- a/Epic 3 - ReportApp/ReportApp/Reports/CurrentShopItems.xlsx
+++ b/Epic 3 - ReportApp/ReportApp/Reports/CurrentShopItems.xlsx
@@ -163,7 +163,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="2">
     <x:border>
       <x:left/>
       <x:right/>
@@ -186,119 +186,42 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top/>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -306,19 +229,11 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -631,7 +546,7 @@
   <x:dimension ref="A1:F9"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <x:selection activeCell="A4" sqref="A4"/>
+      <x:selection activeCell="B7" sqref="B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,222 +557,221 @@
     <x:col min="4" max="4" width="8.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="4.853482" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="70.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" ht="17.4" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="13" t="s">
+    <x:row r="1" spans="1:6" ht="17.4" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="8" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="13"/>
-      <x:c r="C1" s="13"/>
-      <x:c r="D1" s="13"/>
-      <x:c r="E1" s="13"/>
-      <x:c r="F1" s="13"/>
-    </x:row>
-    <x:row r="2" spans="1:7" ht="17.4" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="13" t="s">
+      <x:c r="B1" s="8"/>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+    </x:row>
+    <x:row r="2" spans="1:6" ht="17.4" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="8" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="13" t="s">
+      <x:c r="B2" s="8"/>
+      <x:c r="C2" s="8" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="14"/>
-      <x:c r="E2" s="14"/>
-      <x:c r="F2" s="15"/>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="16" t="s">
+      <x:c r="D2" s="8"/>
+      <x:c r="E2" s="8"/>
+      <x:c r="F2" s="8"/>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="9" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B3" s="17" t="s">
+      <x:c r="B3" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="16" t="s">
+      <x:c r="C3" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="16" t="s">
+      <x:c r="D3" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="16" t="s">
+      <x:c r="E3" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="s">
+      <x:c r="F3" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="18" t="s">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="19" t="s">
+      <x:c r="B4" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="20" t="s">
+      <x:c r="C4" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="20">
+      <x:c r="D4" s="10">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E4" s="20">
+      <x:c r="E4" s="10">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F4" s="20" t="s">
+      <x:c r="F4" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="18" t="s">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="11" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B5" s="19" t="s">
+      <x:c r="B5" s="11" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="20" t="s">
+      <x:c r="C5" s="11" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D5" s="20">
+      <x:c r="D5" s="11">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="20">
+      <x:c r="E5" s="11">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F5" s="20" t="s">
+      <x:c r="F5" s="11" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="A6" s="18" t="s">
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B6" s="19" t="s">
+      <x:c r="B6" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="20" t="s">
+      <x:c r="C6" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D6" s="20">
+      <x:c r="D6" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="20">
+      <x:c r="E6" s="10">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="F6" s="20"/>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="A7" s="18" t="s">
+      <x:c r="F6" s="10"/>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B7" s="19" t="s">
+      <x:c r="B7" s="11" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C7" s="20" t="s">
+      <x:c r="C7" s="11" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D7" s="20">
+      <x:c r="D7" s="11">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E7" s="20">
+      <x:c r="E7" s="11">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F7" s="20" t="s">
+      <x:c r="F7" s="11" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="A8" s="18" t="s">
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
+      <x:c r="B8" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C8" s="20" t="s">
+      <x:c r="C8" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D8" s="20">
+      <x:c r="D8" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E8" s="20">
+      <x:c r="E8" s="10">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="F8" s="20" t="s">
+      <x:c r="F8" s="10" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="18" t="s">
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="11" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B9" s="19" t="s">
+      <x:c r="B9" s="11" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C9" s="20" t="s">
+      <x:c r="C9" s="11" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D9" s="20">
+      <x:c r="D9" s="11">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E9" s="20">
+      <x:c r="E9" s="11">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F9" s="20" t="s">
+      <x:c r="F9" s="11" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="A10" s="18" t="s">
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="10" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B10" s="19" t="s">
+      <x:c r="B10" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C10" s="20" t="s">
+      <x:c r="C10" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D10" s="20">
+      <x:c r="D10" s="10">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="E10" s="20">
+      <x:c r="E10" s="10">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="F10" s="20"/>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="A11" s="18" t="s">
+      <x:c r="F10" s="10"/>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B11" s="19" t="s">
+      <x:c r="B11" s="11" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C11" s="20" t="s">
+      <x:c r="C11" s="11" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D11" s="20">
+      <x:c r="D11" s="11">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E11" s="20">
+      <x:c r="E11" s="11">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="F11" s="20"/>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="18" t="s">
+      <x:c r="F11" s="11"/>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="10" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B12" s="19" t="s">
+      <x:c r="B12" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C12" s="20" t="s">
+      <x:c r="C12" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D12" s="20">
+      <x:c r="D12" s="10">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E12" s="20">
+      <x:c r="E12" s="10">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="F12" s="20"/>
+      <x:c r="F12" s="10"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
